--- a/Vocabularies/TX/tx-pwd-g.xlsx
+++ b/Vocabularies/TX/tx-pwd-g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustus/Desktop/WSWC/IoW/Vocabularies/TX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/TX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86300FF-E3FE-8541-8AD6-074A29E60202}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF396CC-4F07-334E-920C-1BC1F89C8D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="4700" windowWidth="27320" windowHeight="17040" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="2360" yWindow="4560" windowWidth="27320" windowHeight="17040" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="900">
   <si>
     <t>Term</t>
   </si>
@@ -3110,9 +3110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I422"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D422" sqref="D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3826,7 +3826,9 @@
       <c r="C55" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I55" s="2" t="s">
         <v>536</v>
       </c>
@@ -4060,7 +4062,9 @@
       <c r="C74" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -4124,7 +4128,9 @@
       <c r="C80" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
@@ -4247,7 +4253,9 @@
       <c r="C90" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
@@ -4256,7 +4264,9 @@
       <c r="C91" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D91" s="6"/>
+      <c r="D91" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
@@ -4362,7 +4372,9 @@
       <c r="C100" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
@@ -4643,7 +4655,9 @@
       <c r="C123" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="D123" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
@@ -4730,7 +4744,12 @@
       <c r="C130" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
@@ -4924,7 +4943,9 @@
       <c r="C144" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D144" s="6"/>
+      <c r="D144" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
@@ -5204,7 +5225,9 @@
       <c r="C168" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D168" s="6"/>
+      <c r="D168" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
@@ -5321,7 +5344,9 @@
       <c r="C178" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D178" s="6"/>
+      <c r="D178" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
@@ -5394,7 +5419,9 @@
       <c r="C184" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D184" s="6"/>
+      <c r="D184" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
@@ -5806,7 +5833,9 @@
       <c r="C220" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D220" s="6"/>
+      <c r="D220" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
@@ -5818,7 +5847,9 @@
       <c r="C221" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D221" s="6"/>
+      <c r="D221" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
@@ -5841,7 +5872,9 @@
       <c r="C223" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D223" s="6"/>
+      <c r="D223" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
@@ -6209,7 +6242,9 @@
       <c r="C252" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D252" s="6"/>
+      <c r="D252" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
@@ -6716,7 +6751,9 @@
       <c r="C292" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D292" s="6"/>
+      <c r="D292" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
@@ -6969,7 +7006,9 @@
       <c r="C313" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D313" s="6"/>
+      <c r="D313" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
@@ -7064,7 +7103,9 @@
       <c r="C321" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D321" s="6"/>
+      <c r="D321" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
@@ -7248,7 +7289,9 @@
       <c r="C336" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="D336" s="6"/>
+      <c r="D336" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
@@ -7257,7 +7300,9 @@
       <c r="C337" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D337" s="6"/>
+      <c r="D337" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
@@ -7324,7 +7369,9 @@
       <c r="C343" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D343" s="6"/>
+      <c r="D343" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
@@ -7399,7 +7446,9 @@
       <c r="C350" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D350" s="6"/>
+      <c r="D350" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
@@ -7729,7 +7778,9 @@
       <c r="C378" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D378" s="6"/>
+      <c r="D378" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
@@ -7874,7 +7925,9 @@
       <c r="C390" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D390" s="6"/>
+      <c r="D390" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
@@ -7919,7 +7972,9 @@
       <c r="C394" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D394" s="6"/>
+      <c r="D394" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
@@ -8246,7 +8301,9 @@
       <c r="C419" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D419" s="6"/>
+      <c r="D419" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
@@ -8255,7 +8312,9 @@
       <c r="C420" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D420" s="6"/>
+      <c r="D420" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
@@ -8264,7 +8323,9 @@
       <c r="C421" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D421" s="6"/>
+      <c r="D421" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
@@ -8273,7 +8334,9 @@
       <c r="C422" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D422" s="6"/>
+      <c r="D422" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8296,7 +8359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
